--- a/biology/Zoologie/Cimolesta/Cimolesta.xlsx
+++ b/biology/Zoologie/Cimolesta/Cimolesta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cimolestiens (Cimolesta) forment un ordre éteint de mammifères euthériens non placentaires[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cimolestiens (Cimolesta) forment un ordre éteint de mammifères euthériens non placentaires.
 Ils sont parfois nommés cimolestes mais cela prête à confusion avec le genre éponyme. Ils avaient une grande variété de formes de corps, de dentition et de modes de vie, bien que la majorité d'entre eux fussent de petite taille et ressemblassent à des rongeurs ou des opossums. Les pantolestidés étaient, pour leur part, de petits mammifères semi-aquatiques.
 </t>
         </is>
@@ -512,19 +524,56 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'ordre des Cimolesta a été décrit par le paléontologue Malcolm Carnegie McKenna (1930-2008) en 1975.
-Taxinomie
-Plusieurs groupes ont été proposés comme descendant des cimolestiens : les pholidotes, les créodontes et les carnivores. Cependant, des études récentes ont révélé que les cimolestiens seraient des euthériens basaux, sans descendants vivants[1].
-Certains auteurs ont également placé l'énigmatique famille Ptolemaiidae au sein de Cimolesta en raison de similitudes des dents et du crâne avec les membres de Pantolesta, mais des études plus approfondies suggèrent que les ptolémaiidés étaient plus probablement des afrothériens liés à l'oryctérope[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Cimolesta a été décrit par le paléontologue Malcolm Carnegie McKenna (1930-2008) en 1975.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cimolesta</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimolesta</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Plusieurs groupes ont été proposés comme descendant des cimolestiens : les pholidotes, les créodontes et les carnivores. Cependant, des études récentes ont révélé que les cimolestiens seraient des euthériens basaux, sans descendants vivants.
+Certains auteurs ont également placé l'énigmatique famille Ptolemaiidae au sein de Cimolesta en raison de similitudes des dents et du crâne avec les membres de Pantolesta, mais des études plus approfondies suggèrent que les ptolémaiidés étaient plus probablement des afrothériens liés à l'oryctérope,.
 Liste des sous-ordres
 † Didelphodonta
 † Pantodonta
 † Pantolesta
 † Taeniodonta
 † Tillodontia
-Liste des sous-ordres, familles et genres[4]
+Liste des sous-ordres, familles et genres
 Famille Ernanodontidae?
 Genre Ernanodon
 Famille Ptolemaiidae?
